--- a/MedicalLink/Templates/BC_TongHopToanVien_02.xlsx
+++ b/MedicalLink/Templates/BC_TongHopToanVien_02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongNhat\Desktop\MedicalLink.git\trunk\MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +29,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>TỔNG CỘNG</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].PATIENTNAME</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -496,6 +496,12 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,6 +514,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,15 +534,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -825,7 +825,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +841,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -849,146 +849,146 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="2"/>
-      <c r="F2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="F2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
       <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="F3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="D7" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
     </row>
     <row r="8" spans="1:26" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="K8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="L8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="M8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="N8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="O8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="15" t="s">
+      <c r="R8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="S8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="T8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="X8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="V8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="X8" s="15" t="s">
+      <c r="Y8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Y8" s="15" t="s">
+      <c r="Z8" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="Z8" s="15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1073,91 +1073,91 @@
     </row>
     <row r="10" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="9" t="s">
+      <c r="L10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="M10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="N10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="O10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="9" t="s">
+      <c r="R10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="S10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="T10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="V10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="W10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="X10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="U10" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="V10" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="W10" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="X10" s="9" t="s">
+      <c r="Y10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y10" s="9" t="s">
+      <c r="Z10" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="Z10" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="18">
         <f>SUM(E10:E10)</f>
         <v>0</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/MedicalLink/Templates/BC_TongHopToanVien_02.xlsx
+++ b/MedicalLink/Templates/BC_TongHopToanVien_02.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>STT</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>&amp;=[DATA].TENBENHVIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_PTTTYEUCAU</t>
+  </si>
+  <si>
+    <t>PTTT yêu cầu</t>
+  </si>
+  <si>
+    <t>Vật tư TT riêng</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_VATTU_TTRIENG</t>
   </si>
 </sst>
 </file>
@@ -822,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,17 +846,17 @@
     <col min="2" max="3" width="15" style="4" customWidth="1"/>
     <col min="4" max="4" width="35" style="2" customWidth="1"/>
     <col min="5" max="7" width="12.28515625" style="1" customWidth="1"/>
-    <col min="8" max="23" width="17" style="1" customWidth="1"/>
-    <col min="24" max="26" width="12" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="25" width="17" style="1" customWidth="1"/>
+    <col min="26" max="28" width="12" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -861,9 +873,10 @@
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
-      <c r="P2" s="10"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="28" t="s">
         <v>2</v>
       </c>
@@ -876,10 +889,11 @@
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
       <c r="O3" s="28"/>
-      <c r="P3" s="11"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:26" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:28" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>0</v>
       </c>
@@ -920,8 +934,10 @@
       <c r="X7" s="26"/>
       <c r="Y7" s="26"/>
       <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
     </row>
-    <row r="8" spans="1:26" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -952,316 +968,256 @@
         <v>14</v>
       </c>
       <c r="N8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="P8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="Q8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="R8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="S8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="T8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="15" t="s">
+      <c r="U8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="V8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="U8" s="16" t="s">
+      <c r="W8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="V8" s="16" t="s">
+      <c r="X8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="W8" s="16" t="s">
+      <c r="Y8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="X8" s="15" t="s">
+      <c r="Z8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Y8" s="15" t="s">
+      <c r="AA8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Z8" s="15" t="s">
+      <c r="AB8" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="X9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB9" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6">
-        <v>3</v>
-      </c>
-      <c r="D9" s="6">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6">
-        <v>6</v>
-      </c>
-      <c r="G9" s="6">
-        <v>7</v>
-      </c>
-      <c r="H9" s="6">
-        <v>8</v>
-      </c>
-      <c r="I9" s="12">
-        <v>9</v>
-      </c>
-      <c r="J9" s="6">
-        <v>10</v>
-      </c>
-      <c r="K9" s="6">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6">
-        <v>12</v>
-      </c>
-      <c r="M9" s="6">
-        <v>13</v>
-      </c>
-      <c r="N9" s="6">
-        <v>14</v>
-      </c>
-      <c r="O9" s="6">
-        <v>15</v>
-      </c>
-      <c r="P9" s="6">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>17</v>
-      </c>
-      <c r="R9" s="6">
-        <v>18</v>
-      </c>
-      <c r="S9" s="6">
-        <v>19</v>
-      </c>
-      <c r="T9" s="6">
-        <v>20</v>
-      </c>
-      <c r="U9" s="6">
-        <v>21</v>
-      </c>
-      <c r="V9" s="6">
-        <v>22</v>
-      </c>
-      <c r="W9" s="6">
-        <v>23</v>
-      </c>
-      <c r="X9" s="6">
-        <v>24</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>25</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>26</v>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="18">
+        <f>SUM(E9:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" ref="F10:P10" si="0">SUM(F9:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="18">
+        <f t="shared" ref="N10" si="1">SUM(N9:N9)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="18">
+        <f>SUM(Q9:Q9)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="18">
+        <f t="shared" ref="R10:AB10" si="2">SUM(R9:R9)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="18">
+        <f t="shared" ref="V10:X10" si="3">SUM(V9:V9)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="18">
+        <f>SUM(W9:W9)</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="18">
+        <f>SUM(Y9:Y9)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="V10" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="W10" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z10" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="18">
-        <f>SUM(E10:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
-        <f t="shared" ref="F11:O11" si="0">SUM(F10:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="18">
-        <f>SUM(P10:P10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="18">
-        <f t="shared" ref="Q11:Z11" si="1">SUM(Q10:Q10)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="18">
-        <f t="shared" ref="T11:V11" si="2">SUM(T10:T10)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="18">
-        <f>SUM(U10:U10)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="18">
-        <f>SUM(W10:W10)</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q15" s="1" t="s">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F2:P2"/>
+    <mergeCell ref="F3:P3"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:Z7"/>
+    <mergeCell ref="I7:AB7"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
   </mergeCells>
